--- a/trunk/docs/Set Instrucciones (Nuestro).xlsx
+++ b/trunk/docs/Set Instrucciones (Nuestro).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaquaran\Desktop\tito\Facu\Arquitectura de Computadoras\Tp Final\Trunk3\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="138">
   <si>
     <t>[31:26]</t>
   </si>
@@ -427,6 +432,9 @@
   </si>
   <si>
     <t>Arith</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -563,6 +571,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,12 +588,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,12 +621,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -660,7 +671,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,7 +706,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,10 +920,10 @@
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="H34" sqref="H34"/>
+      <selection pane="topRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -1006,7 +1017,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C8" t="s">
@@ -1044,7 +1055,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -1080,7 +1091,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -1116,7 +1127,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1163,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" t="s">
         <v>23</v>
       </c>
@@ -1188,7 +1199,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" t="s">
         <v>33</v>
       </c>
@@ -1224,7 +1235,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" t="s">
         <v>34</v>
       </c>
@@ -1260,7 +1271,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -1296,7 +1307,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -1332,7 +1343,7 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" t="s">
         <v>24</v>
       </c>
@@ -1368,7 +1379,7 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" t="s">
         <v>133</v>
       </c>
@@ -1401,7 +1412,7 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
+      <c r="B19" s="14"/>
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -1437,7 +1448,7 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" t="s">
         <v>28</v>
       </c>
@@ -1473,7 +1484,7 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -1509,7 +1520,7 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
+      <c r="B22" s="14"/>
       <c r="C22" t="s">
         <v>27</v>
       </c>
@@ -1545,7 +1556,7 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
+      <c r="B23" s="14"/>
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -1581,7 +1592,7 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
+      <c r="B24" s="14"/>
       <c r="C24" t="s">
         <v>13</v>
       </c>
@@ -1600,11 +1611,11 @@
       <c r="J24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
       <c r="O24" s="7" t="s">
         <v>39</v>
       </c>
@@ -1613,7 +1624,7 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -1632,11 +1643,11 @@
       <c r="J25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
       <c r="O25" s="7" t="s">
         <v>39</v>
       </c>
@@ -1645,7 +1656,7 @@
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
+      <c r="B26" s="14"/>
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -1664,11 +1675,11 @@
       <c r="J26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
       <c r="O26" s="7" t="s">
         <v>39</v>
       </c>
@@ -1677,7 +1688,7 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
+      <c r="B27" s="14"/>
       <c r="C27" t="s">
         <v>35</v>
       </c>
@@ -1696,11 +1707,11 @@
       <c r="J27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
       <c r="O27" s="7" t="s">
         <v>39</v>
       </c>
@@ -1709,7 +1720,7 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
+      <c r="B28" s="14"/>
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -1728,11 +1739,11 @@
       <c r="J28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
       <c r="O28" s="7" t="s">
         <v>39</v>
       </c>
@@ -1741,7 +1752,7 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
+      <c r="B29" s="14"/>
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -1760,11 +1771,11 @@
       <c r="J29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
       <c r="O29" s="7" t="s">
         <v>39</v>
       </c>
@@ -1772,8 +1783,13 @@
         <v>22</v>
       </c>
     </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I30" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C32" t="s">
@@ -1791,17 +1807,17 @@
       <c r="J32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
       <c r="P32">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
+      <c r="B33" s="15"/>
       <c r="C33" t="s">
         <v>65</v>
       </c>
@@ -1817,17 +1833,17 @@
       <c r="J33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
       <c r="P33">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
+      <c r="B34" s="15"/>
       <c r="C34" t="s">
         <v>66</v>
       </c>
@@ -1843,17 +1859,17 @@
       <c r="J34" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
       <c r="P34">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
+      <c r="B35" s="15"/>
       <c r="C35" t="s">
         <v>67</v>
       </c>
@@ -1869,17 +1885,17 @@
       <c r="J35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
       <c r="P35">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
+      <c r="B36" s="15"/>
       <c r="C36" t="s">
         <v>68</v>
       </c>
@@ -1895,17 +1911,17 @@
       <c r="J36" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
       <c r="P36">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
+      <c r="B37" s="15"/>
       <c r="C37" t="s">
         <v>69</v>
       </c>
@@ -1921,17 +1937,17 @@
       <c r="J37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K37" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
       <c r="P37">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
+      <c r="B38" s="15"/>
       <c r="C38" t="s">
         <v>70</v>
       </c>
@@ -1947,17 +1963,17 @@
       <c r="J38" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K38" s="15" t="s">
+      <c r="K38" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
       <c r="P38">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
+      <c r="B39" s="15"/>
       <c r="C39" t="s">
         <v>71</v>
       </c>
@@ -1973,17 +1989,17 @@
       <c r="J39" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="K39" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
       <c r="P39">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
+      <c r="B40" s="15"/>
       <c r="C40" t="s">
         <v>72</v>
       </c>
@@ -1999,11 +2015,11 @@
       <c r="J40" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K40" s="15" t="s">
+      <c r="K40" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
       <c r="P40">
         <v>31</v>
       </c>
@@ -2028,7 +2044,7 @@
       <c r="A43" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="16" t="s">
         <v>90</v>
       </c>
       <c r="C43" t="s">
@@ -2040,13 +2056,13 @@
       <c r="H43" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
       <c r="P43">
         <v>32</v>
       </c>
@@ -2055,7 +2071,7 @@
       <c r="A44" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="16"/>
       <c r="C44" t="s">
         <v>85</v>
       </c>
@@ -2065,19 +2081,19 @@
       <c r="H44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
       <c r="P44">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="14"/>
+      <c r="B45" s="16"/>
       <c r="C45" t="s">
         <v>87</v>
       </c>
@@ -2107,7 +2123,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
+      <c r="B46" s="16"/>
       <c r="C46" t="s">
         <v>86</v>
       </c>
@@ -2137,7 +2153,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="14"/>
+      <c r="B47" s="16"/>
       <c r="C47" t="s">
         <v>88</v>
       </c>
@@ -2153,17 +2169,17 @@
       <c r="J47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K47" s="15" t="s">
+      <c r="K47" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
       <c r="P47">
         <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="14"/>
+      <c r="B48" s="16"/>
       <c r="C48" t="s">
         <v>89</v>
       </c>
@@ -2179,11 +2195,11 @@
       <c r="J48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K48" s="15" t="s">
+      <c r="K48" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
       <c r="P48">
         <v>37</v>
       </c>
@@ -2196,12 +2212,6 @@
     <sortCondition ref="C8:C30"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="I44:M44"/>
     <mergeCell ref="K29:M29"/>
     <mergeCell ref="B8:B29"/>
     <mergeCell ref="B32:B40"/>
@@ -2218,6 +2228,12 @@
     <mergeCell ref="K34:M34"/>
     <mergeCell ref="K35:M35"/>
     <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="I44:M44"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H48">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="000000">
@@ -2237,7 +2253,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -2530,7 +2546,7 @@
       <selection activeCell="E11" sqref="E11:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
